--- a/Documentos/Lista_de_Exercicios_00.xlsx
+++ b/Documentos/Lista_de_Exercicios_00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Germano-Silva\Documents\GitHub\Curso_Excel\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C3E316-39CC-4BB5-A780-AD52717FFBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D03C16-05D1-4118-8B44-8A6268A4D5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -1838,12 +1838,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1853,11 +1847,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1865,16 +1865,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10143,7 +10143,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$L$8:$M$8" spid="_x0000_s4181"/>
+                  <a14:cameraTool cellRange="$L$8:$M$8" spid="_x0000_s4182"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -11847,7 +11847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection sqref="A1:Z4"/>
     </sheetView>
   </sheetViews>
@@ -13780,22 +13780,22 @@
       <c r="S6" s="108"/>
     </row>
     <row r="7" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="M7" s="101" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="M7" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14147,30 +14147,30 @@
       <c r="T6" s="108"/>
     </row>
     <row r="7" spans="1:20" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
       <c r="G7" s="31"/>
-      <c r="H7" s="101" t="s">
+      <c r="H7" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101" t="s">
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
     </row>
     <row r="8" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -14866,21 +14866,21 @@
       <c r="S6" s="108"/>
     </row>
     <row r="7" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
       <c r="G7" s="31"/>
-      <c r="N7" s="101" t="s">
+      <c r="N7" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -15838,13 +15838,13 @@
       <c r="Q6" s="108"/>
     </row>
     <row r="7" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
       <c r="G7" s="31"/>
       <c r="H7" s="116" t="s">
         <v>17</v>
@@ -18489,164 +18489,164 @@
       <c r="Y4" s="93"/>
     </row>
     <row r="5" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
     </row>
     <row r="6" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
+      <c r="W7" s="99"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="100"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="1:25" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="101" t="s">
+      <c r="O9" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
+      <c r="U9" s="100"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
-      <c r="O10" s="97" t="s">
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="97"/>
+      <c r="O10" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="99"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="97"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" s="6"/>
@@ -18658,10 +18658,10 @@
       <c r="C12" s="8">
         <v>1</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="95"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
@@ -18669,10 +18669,10 @@
       <c r="O12" s="8">
         <v>1</v>
       </c>
-      <c r="P12" s="95" t="s">
+      <c r="P12" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="Q12" s="95"/>
+      <c r="Q12" s="98"/>
       <c r="R12" s="9"/>
       <c r="S12" s="10"/>
       <c r="T12" s="11"/>
@@ -18682,10 +18682,10 @@
       <c r="C13" s="8">
         <v>2</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="95"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="12" t="s">
         <v>11</v>
       </c>
@@ -18699,10 +18699,10 @@
       <c r="O13" s="8">
         <v>2</v>
       </c>
-      <c r="P13" s="95" t="s">
+      <c r="P13" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="95"/>
+      <c r="Q13" s="98"/>
       <c r="R13" s="12" t="s">
         <v>11</v>
       </c>
@@ -18718,10 +18718,10 @@
       <c r="C14" s="8">
         <v>3</v>
       </c>
-      <c r="D14" s="95" t="s">
+      <c r="D14" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="96"/>
+      <c r="E14" s="101"/>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
@@ -18735,10 +18735,10 @@
       <c r="O14" s="8">
         <v>3</v>
       </c>
-      <c r="P14" s="95" t="s">
+      <c r="P14" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="95"/>
+      <c r="Q14" s="98"/>
       <c r="R14" s="1" t="s">
         <v>14</v>
       </c>
@@ -18754,10 +18754,10 @@
       <c r="C15" s="8">
         <v>4</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="95"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="15" t="s">
         <v>10</v>
       </c>
@@ -18765,10 +18765,10 @@
       <c r="O15" s="8">
         <v>4</v>
       </c>
-      <c r="P15" s="95" t="s">
+      <c r="P15" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="Q15" s="95"/>
+      <c r="Q15" s="98"/>
       <c r="R15" s="15" t="s">
         <v>10</v>
       </c>
@@ -18778,10 +18778,10 @@
       <c r="C16" s="8">
         <v>5</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="95"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="16" t="s">
         <v>10</v>
       </c>
@@ -18789,10 +18789,10 @@
       <c r="O16" s="8">
         <v>5</v>
       </c>
-      <c r="P16" s="95" t="s">
+      <c r="P16" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="Q16" s="95"/>
+      <c r="Q16" s="98"/>
       <c r="R16" s="16" t="s">
         <v>10</v>
       </c>
@@ -18802,10 +18802,10 @@
       <c r="C17" s="8">
         <v>6</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="95"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="17" t="s">
         <v>10</v>
       </c>
@@ -18813,10 +18813,10 @@
       <c r="O17" s="8">
         <v>6</v>
       </c>
-      <c r="P17" s="95" t="s">
+      <c r="P17" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="Q17" s="95"/>
+      <c r="Q17" s="98"/>
       <c r="R17" s="17" t="s">
         <v>10</v>
       </c>
@@ -18851,14 +18851,6 @@
     <row r="29" spans="3:21" ht="34.15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="O10:U10"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="A1:Y4"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A5:W8"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="C9:I9"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
@@ -18869,6 +18861,14 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="A1:Y4"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A5:W8"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20457,7 +20457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A5" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
@@ -20581,124 +20581,124 @@
       <c r="V4" s="93"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="99"/>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="99"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="100"/>
-      <c r="V8" s="100"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="99"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="L9" s="101" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="L9" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="100"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="103" t="s">
@@ -21435,8 +21435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection sqref="A1:V4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -21553,54 +21553,54 @@
       <c r="V4" s="93"/>
     </row>
     <row r="5" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
     </row>
     <row r="6" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
     </row>
     <row r="7" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -21627,188 +21627,188 @@
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
-      <c r="I8" s="106" t="s">
+      <c r="I8" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="106"/>
-      <c r="K8" s="107"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="25">
         <v>19.989999999999998</v>
       </c>
       <c r="M8" s="26">
         <v>0.15</v>
       </c>
-      <c r="O8" s="101" t="s">
+      <c r="O8" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
       <c r="T8" s="31"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="O10" s="104" t="s">
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="O10" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
       <c r="H11" s="25">
         <v>19.989999999999998</v>
       </c>
       <c r="I11" s="26">
         <v>0.15</v>
       </c>
-      <c r="P11" s="95" t="s">
+      <c r="P11" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
       <c r="H12">
         <v>19.989999999999998</v>
       </c>
       <c r="I12">
         <v>0.15</v>
       </c>
-      <c r="P12" s="95" t="s">
+      <c r="P12" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
       <c r="H13" s="29">
         <v>19.989999999999998</v>
       </c>
       <c r="I13" s="30">
         <v>0.15</v>
       </c>
-      <c r="P13" s="95" t="s">
+      <c r="P13" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
       <c r="H14" s="25">
         <v>19.989999999999998</v>
       </c>
       <c r="I14" s="26">
         <v>0.15</v>
       </c>
-      <c r="P14" s="95" t="s">
+      <c r="P14" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
       <c r="H15" s="27">
         <v>19.989999999999998</v>
       </c>
       <c r="I15" s="28">
         <v>0.15</v>
       </c>
-      <c r="P15" s="95" t="s">
+      <c r="P15" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
       <c r="H16" s="25">
         <v>19.989999999999998</v>
       </c>
       <c r="I16" s="26">
         <v>0.15</v>
       </c>
-      <c r="P16" s="95" t="s">
+      <c r="P16" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
+      <c r="Q16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
       <c r="H17" s="25">
         <v>19.989999999999998</v>
       </c>
-      <c r="P17" s="95" t="s">
+      <c r="P17" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="H18" s="26">
@@ -21816,121 +21816,121 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="O19" s="104" t="s">
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="O19" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
       <c r="H20">
         <v>19.989999999999998</v>
       </c>
       <c r="I20">
         <v>0.15</v>
       </c>
-      <c r="P20" s="105" t="s">
+      <c r="P20" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="Q20" s="105"/>
-      <c r="R20" s="105"/>
-      <c r="S20" s="105"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
       <c r="H21" s="29">
         <v>19.989999999999998</v>
       </c>
       <c r="I21" s="30">
         <v>0.15</v>
       </c>
-      <c r="P21" s="95" t="s">
+      <c r="P21" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
       <c r="H22" s="25">
         <v>19.989999999999998</v>
       </c>
       <c r="I22" s="26">
         <v>0.15</v>
       </c>
-      <c r="P22" s="95" t="s">
+      <c r="P22" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="O24" s="104" t="s">
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="O24" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C25" s="95" t="s">
+      <c r="C25" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
       <c r="H25" s="25"/>
       <c r="I25" s="26"/>
-      <c r="P25" s="95" t="s">
+      <c r="P25" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
+      <c r="Q25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
       <c r="H26" s="29">
         <f>L8</f>
         <v>19.989999999999998</v>
@@ -21939,68 +21939,45 @@
         <f>M8</f>
         <v>0.15</v>
       </c>
-      <c r="P26" s="95" t="s">
+      <c r="P26" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="P27" s="95" t="s">
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="P27" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
+      <c r="Q27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C28" s="95" t="s">
+      <c r="C28" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="P28" s="95" t="s">
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="P28" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:V4"/>
-    <mergeCell ref="A5:V6"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
     <mergeCell ref="P26:S26"/>
     <mergeCell ref="P27:S27"/>
     <mergeCell ref="P28:S28"/>
@@ -22017,6 +21994,29 @@
     <mergeCell ref="P14:S14"/>
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="P16:S16"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A1:V4"/>
+    <mergeCell ref="A5:V6"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="P17:S17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22209,22 +22209,22 @@
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="K8" s="101" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="K8" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="34"/>
@@ -22737,54 +22737,54 @@
       <c r="V4" s="93"/>
     </row>
     <row r="5" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
     </row>
     <row r="6" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
     </row>
     <row r="7" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -22811,24 +22811,24 @@
       <c r="V7" s="5"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="N8" s="101" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="N8" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="100"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C9" s="24"/>
@@ -23119,6 +23119,13 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:V4"/>
+    <mergeCell ref="A5:V6"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="N8:T8"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B23:H25"/>
@@ -23127,13 +23134,6 @@
     <mergeCell ref="N15:P15"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="N23:T25"/>
-    <mergeCell ref="A1:V4"/>
-    <mergeCell ref="A5:V6"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="N8:T8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23335,24 +23335,24 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="M8" s="101" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="M8" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
     </row>
     <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
@@ -23999,24 +23999,24 @@
       <c r="U7" s="5"/>
     </row>
     <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="M8" s="101" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="M8" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -24842,24 +24842,24 @@
     </row>
     <row r="7" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="M8" s="101" t="s">
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="M8" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
+      <c r="R8" s="100"/>
+      <c r="S8" s="100"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
